--- a/SonarExcel/SonarQube_2019-01-28.xlsx
+++ b/SonarExcel/SonarQube_2019-01-28.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>NO</t>
   </si>
@@ -29,16 +29,13 @@
     <t>This week</t>
   </si>
   <si>
-    <t xml:space="preserve">APIs            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditing               </t>
+    <t>Auditing</t>
   </si>
   <si>
     <t>97.60%</t>
   </si>
   <si>
-    <t xml:space="preserve">Lottery Validations    </t>
+    <t>Lottery Validations</t>
   </si>
   <si>
     <t>72.40%</t>
@@ -47,46 +44,43 @@
     <t>70.80%</t>
   </si>
   <si>
-    <t xml:space="preserve">Users Operators </t>
+    <t>Auth UI</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>69.00%</t>
+  </si>
+  <si>
+    <t>Promotion Engine UI</t>
+  </si>
+  <si>
+    <t>66.10%</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>49.70%</t>
+  </si>
+  <si>
+    <t>49.80%</t>
   </si>
   <si>
     <t>Winning Certificates UI</t>
   </si>
   <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>69.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth UI                </t>
-  </si>
-  <si>
-    <t>66.10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion Engine UI    </t>
-  </si>
-  <si>
-    <t>49.70%</t>
-  </si>
-  <si>
-    <t>49.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS Service            </t>
-  </si>
-  <si>
     <t>49.00%</t>
   </si>
   <si>
-    <t xml:space="preserve">NAM                    </t>
+    <t>ATS Service</t>
   </si>
   <si>
     <t>44.50%</t>
   </si>
   <si>
-    <t xml:space="preserve">Alerting               </t>
+    <t>Game Management Service</t>
   </si>
   <si>
     <t>39.10%</t>
@@ -95,115 +89,112 @@
     <t>30.00%</t>
   </si>
   <si>
-    <t xml:space="preserve">EJK adaptor            </t>
+    <t>Messaging</t>
   </si>
   <si>
     <t>23.60%</t>
   </si>
   <si>
-    <t>Game Management Service</t>
+    <t>Alerting</t>
   </si>
   <si>
     <t>19.20%</t>
   </si>
   <si>
-    <t xml:space="preserve">IGMS Service           </t>
+    <t>Promotion Engine</t>
   </si>
   <si>
     <t>18.90%</t>
   </si>
   <si>
-    <t xml:space="preserve">Messaging              </t>
+    <t>EJK Adaptor</t>
   </si>
   <si>
     <t>15.20%</t>
   </si>
   <si>
-    <t xml:space="preserve">Promotion Engine       </t>
+    <t>IGMS Service</t>
   </si>
   <si>
     <t>10.40%</t>
   </si>
   <si>
-    <t xml:space="preserve">Messaging UI           </t>
+    <t>Messaging UI</t>
   </si>
   <si>
     <t>4.00%</t>
   </si>
   <si>
-    <t xml:space="preserve">Alerting UI            </t>
+    <t>Alerting UI</t>
   </si>
   <si>
     <t>1.20%</t>
   </si>
   <si>
-    <t xml:space="preserve">Lottery UI             </t>
+    <t>IGMS UI</t>
   </si>
   <si>
     <t>0.30%</t>
   </si>
   <si>
-    <t xml:space="preserve">IGMS UI                </t>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>No Coverage</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t xml:space="preserve">ATS UI                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster Management UI  </t>
-  </si>
-  <si>
-    <t>Terminal Transactions U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraud UI               </t>
-  </si>
-  <si>
     <t>Lottery Risk Management</t>
   </si>
   <si>
-    <t>Terminals &amp; User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal Adaptor       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting             </t>
-  </si>
-  <si>
-    <t>No Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Gateway J          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Scheduler         </t>
+    <t>Game Scheduler</t>
+  </si>
+  <si>
+    <t>API Gateway J</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Terminal Transactions UI</t>
+  </si>
+  <si>
+    <t>ATS UI</t>
+  </si>
+  <si>
+    <t>Information Store</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Terminal Adaptor</t>
+  </si>
+  <si>
+    <t>Lottery UI</t>
   </si>
   <si>
     <t>0.70%</t>
   </si>
   <si>
-    <t xml:space="preserve">Information Store      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraud                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditing UI            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS UI                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse UI               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS                    </t>
+    <t>Cluster Management UI</t>
+  </si>
+  <si>
+    <t>Fraud UI</t>
+  </si>
+  <si>
+    <t>DMS UI</t>
+  </si>
+  <si>
+    <t>Pulse UI</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Auditing UI</t>
   </si>
 </sst>
 </file>
@@ -322,8 +313,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="5.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.73828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.5859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -349,561 +340,462 @@
       <c r="A2" s="1" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12.0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
+      <c r="B13" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
+      <c r="B15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
+      <c r="B17" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
+      <c r="B18" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>18.0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
+      <c r="B19" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+      <c r="B20" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20.0</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
+      <c r="B21" t="s">
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21.0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
+      <c r="B22" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22.0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23.0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
+      <c r="B25" t="s">
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25.0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
+      <c r="B26" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>26.0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
+      <c r="B27" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27.0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>28.0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
+      <c r="B29" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>29.0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>30.0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
+      <c r="B31" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>31.0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
+      <c r="B32" t="s">
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32.0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>62</v>
+      <c r="B33" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>33.0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
+      <c r="B34" t="s">
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/SonarExcel/SonarQube_2019-01-28.xlsx
+++ b/SonarExcel/SonarQube_2019-01-28.xlsx
@@ -29,12 +29,117 @@
     <t>This week</t>
   </si>
   <si>
+    <t>API Gateway J</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>ATS Service</t>
+  </si>
+  <si>
+    <t>44.50%</t>
+  </si>
+  <si>
+    <t>ATS UI</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Alerting</t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>Alerting UI</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
     <t>Auditing</t>
   </si>
   <si>
     <t>97.60%</t>
   </si>
   <si>
+    <t>Auditing UI</t>
+  </si>
+  <si>
+    <t>No Coverage</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Auth UI</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>69.00%</t>
+  </si>
+  <si>
+    <t>Cluster Management UI</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DMS UI</t>
+  </si>
+  <si>
+    <t>EJK Adaptor</t>
+  </si>
+  <si>
+    <t>15.20%</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Fraud UI</t>
+  </si>
+  <si>
+    <t>Game Management Service</t>
+  </si>
+  <si>
+    <t>39.10%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>Game Scheduler</t>
+  </si>
+  <si>
+    <t>IGMS Service</t>
+  </si>
+  <si>
+    <t>10.40%</t>
+  </si>
+  <si>
+    <t>IGMS UI</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>Information Store</t>
+  </si>
+  <si>
+    <t>Lottery Risk Management</t>
+  </si>
+  <si>
+    <t>Lottery UI</t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
     <t>Lottery Validations</t>
   </si>
   <si>
@@ -44,13 +149,31 @@
     <t>70.80%</t>
   </si>
   <si>
-    <t>Auth UI</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>69.00%</t>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t>Messaging UI</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>49.70%</t>
+  </si>
+  <si>
+    <t>49.80%</t>
+  </si>
+  <si>
+    <t>Promotion Engine</t>
+  </si>
+  <si>
+    <t>18.90%</t>
   </si>
   <si>
     <t>Promotion Engine UI</t>
@@ -59,142 +182,19 @@
     <t>66.10%</t>
   </si>
   <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>49.70%</t>
-  </si>
-  <si>
-    <t>49.80%</t>
+    <t>Pulse UI</t>
+  </si>
+  <si>
+    <t>Terminal Adaptor</t>
+  </si>
+  <si>
+    <t>Terminal Transactions UI</t>
   </si>
   <si>
     <t>Winning Certificates UI</t>
   </si>
   <si>
     <t>49.00%</t>
-  </si>
-  <si>
-    <t>ATS Service</t>
-  </si>
-  <si>
-    <t>44.50%</t>
-  </si>
-  <si>
-    <t>Game Management Service</t>
-  </si>
-  <si>
-    <t>39.10%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>Messaging</t>
-  </si>
-  <si>
-    <t>23.60%</t>
-  </si>
-  <si>
-    <t>Alerting</t>
-  </si>
-  <si>
-    <t>19.20%</t>
-  </si>
-  <si>
-    <t>Promotion Engine</t>
-  </si>
-  <si>
-    <t>18.90%</t>
-  </si>
-  <si>
-    <t>EJK Adaptor</t>
-  </si>
-  <si>
-    <t>15.20%</t>
-  </si>
-  <si>
-    <t>IGMS Service</t>
-  </si>
-  <si>
-    <t>10.40%</t>
-  </si>
-  <si>
-    <t>Messaging UI</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>Alerting UI</t>
-  </si>
-  <si>
-    <t>1.20%</t>
-  </si>
-  <si>
-    <t>IGMS UI</t>
-  </si>
-  <si>
-    <t>0.30%</t>
-  </si>
-  <si>
-    <t>Fraud</t>
-  </si>
-  <si>
-    <t>No Coverage</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>Lottery Risk Management</t>
-  </si>
-  <si>
-    <t>Game Scheduler</t>
-  </si>
-  <si>
-    <t>API Gateway J</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Terminal Transactions UI</t>
-  </si>
-  <si>
-    <t>ATS UI</t>
-  </si>
-  <si>
-    <t>Information Store</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>Terminal Adaptor</t>
-  </si>
-  <si>
-    <t>Lottery UI</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>Cluster Management UI</t>
-  </si>
-  <si>
-    <t>Fraud UI</t>
-  </si>
-  <si>
-    <t>DMS UI</t>
-  </si>
-  <si>
-    <t>Pulse UI</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>Auditing UI</t>
   </si>
 </sst>
 </file>
@@ -360,8 +360,8 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -369,13 +369,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -383,13 +383,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -397,13 +397,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -411,13 +411,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -425,13 +425,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -439,13 +439,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -453,13 +453,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -467,13 +467,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -481,13 +481,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -495,13 +495,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -509,13 +509,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -523,13 +523,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -537,13 +537,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -551,13 +551,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -565,13 +565,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -579,13 +579,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -593,13 +593,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -607,13 +607,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -621,13 +621,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -635,13 +635,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -649,13 +649,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -663,13 +663,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -677,13 +677,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -691,13 +691,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -705,13 +705,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -719,13 +719,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -733,13 +733,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -747,13 +747,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -761,13 +761,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -775,13 +775,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -789,13 +789,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
